--- a/doc/测试用例/教师模块测试用例.xlsx
+++ b/doc/测试用例/教师模块测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>用例标识</t>
   </si>
@@ -52,6 +52,9 @@
     <t>正例1</t>
   </si>
   <si>
+    <t>黄伟锋</t>
+  </si>
+  <si>
     <t>发布作业</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>教师登录/批改作业</t>
   </si>
   <si>
+    <t>李燕凤</t>
+  </si>
+  <si>
     <t>批改作业</t>
   </si>
   <si>
@@ -494,20 +500,19 @@
   </si>
   <si>
     <t>密码格式错误</t>
-  </si>
-  <si>
-    <t>李燕凤</t>
-  </si>
-  <si>
-    <t>黄伟锋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,27 +524,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -547,30 +874,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -832,29 +1445,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="27.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" ht="40.5" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -893,2603 +1506,2603 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8">
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="7:8">
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8">
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8">
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8">
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9">
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:8">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8">
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8">
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8">
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
       <c r="G17">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8">
       <c r="G27">
         <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:8">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>161</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
       <c r="G35">
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8">
       <c r="G36">
         <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:8">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>161</v>
+        <v>36</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8">
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8">
       <c r="G43">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8">
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
       <c r="G45">
         <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9">
       <c r="G46">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="1:8">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>161</v>
+        <v>40</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
       <c r="G51">
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
       <c r="G52">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
       <c r="G53">
         <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
       <c r="G54">
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
       <c r="G55">
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:8">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
       <c r="G59">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
       <c r="G60">
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
       <c r="G61">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
       <c r="G62">
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
       <c r="G63">
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9">
       <c r="G64">
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:8">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>161</v>
+        <v>48</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
       <c r="G69">
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
       <c r="G70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
       <c r="G71">
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
       <c r="G72">
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9">
       <c r="G73">
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" ht="40.5" spans="1:8">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>161</v>
+        <v>50</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
       <c r="G78">
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
       <c r="G79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
       <c r="G80">
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9">
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" ht="40.5" spans="1:8">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>161</v>
+        <v>54</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
       <c r="G85">
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
       <c r="G86">
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
       <c r="G87">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
       <c r="G88">
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
       <c r="G89">
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
       <c r="G90">
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9">
       <c r="G91">
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
       <c r="G97">
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9">
       <c r="G98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
       <c r="G102">
         <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
       <c r="G103">
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
       <c r="G104">
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9">
       <c r="G105">
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8">
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
       <c r="G110">
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9">
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
       <c r="G114">
         <v>2</v>
       </c>
       <c r="H114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8">
       <c r="G115">
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
       <c r="G116">
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9">
       <c r="G117">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I117" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8">
       <c r="G120">
         <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8">
       <c r="G121">
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8">
       <c r="G122">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9">
       <c r="G123">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I123" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E125" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8">
       <c r="G128">
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9">
       <c r="G129">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I129" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G131">
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8">
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
       <c r="G134">
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9">
       <c r="G135">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I135" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
-        <v>58</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
       <c r="G138">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8">
       <c r="G139">
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8">
       <c r="G140">
         <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9">
       <c r="G141">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I141" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E143" t="s">
-        <v>58</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8">
       <c r="G144">
         <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8">
       <c r="G145">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8">
       <c r="G146">
         <v>4</v>
       </c>
       <c r="H146" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9">
       <c r="G147">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I147" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E149" t="s">
-        <v>58</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8">
       <c r="G150">
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8">
       <c r="G151">
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8">
       <c r="G152">
         <v>4</v>
       </c>
       <c r="H152" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9">
       <c r="G153">
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I153" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>58</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8">
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8">
       <c r="G157">
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8">
       <c r="G158">
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9">
       <c r="G159">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I159" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8">
       <c r="G162">
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8">
       <c r="G163">
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8">
       <c r="G164">
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="7:9">
       <c r="G165">
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I165" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8">
       <c r="G168">
         <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8">
       <c r="G169">
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8">
       <c r="G170">
         <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9">
       <c r="G171">
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I171" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D173" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8">
       <c r="G174">
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8">
       <c r="G175">
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8">
       <c r="G176">
         <v>4</v>
       </c>
       <c r="H176" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="7:9">
       <c r="G177">
         <v>5</v>
       </c>
       <c r="H177" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I177" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E179" t="s">
-        <v>108</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8">
       <c r="G180">
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8">
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="7:9">
       <c r="G182">
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I182" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D184" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E184" t="s">
-        <v>108</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8">
       <c r="G185">
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8">
       <c r="G186">
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="7:9">
       <c r="G187">
         <v>4</v>
       </c>
       <c r="H187" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I187" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C189" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D189" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E189" t="s">
-        <v>108</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8">
       <c r="G190">
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8">
       <c r="G191">
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="7:9">
       <c r="G192">
         <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I192" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B194" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E194" t="s">
-        <v>108</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8">
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8">
       <c r="G196">
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="7:9">
       <c r="G197">
         <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I197" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E199" t="s">
-        <v>108</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G199">
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8">
       <c r="G200">
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8">
       <c r="G201">
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9">
       <c r="G202">
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I202" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B204" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D204" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E204" t="s">
-        <v>108</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8">
       <c r="G205">
         <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8">
       <c r="G206">
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9">
       <c r="G207">
         <v>4</v>
       </c>
       <c r="H207" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I207" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B209" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D209" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E209" t="s">
-        <v>108</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="7:8">
       <c r="G210">
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="7:8">
       <c r="G211">
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="7:9">
       <c r="G212">
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I212" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E214" t="s">
-        <v>108</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="7:8">
       <c r="G215">
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" spans="7:8">
       <c r="G216">
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9">
       <c r="G217">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I217" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B219" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D219" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E219" t="s">
-        <v>108</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="7:8">
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="221" spans="7:8">
       <c r="G221">
         <v>3</v>
       </c>
       <c r="H221" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="7:9">
       <c r="G222">
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I222" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B226" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C226" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>161</v>
+      <c r="D226" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E226" t="s">
-        <v>108</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="7:8">
       <c r="G227">
         <v>2</v>
       </c>
       <c r="H227" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="228" spans="7:8">
       <c r="G228">
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="7:9">
       <c r="G229">
         <v>4</v>
       </c>
       <c r="H229" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I229" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B231" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>161</v>
+        <v>24</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E231" t="s">
-        <v>108</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="7:8">
       <c r="G232">
         <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233" spans="7:8">
       <c r="G233">
         <v>3</v>
       </c>
       <c r="H233" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="234" spans="7:9">
       <c r="G234">
         <v>4</v>
       </c>
       <c r="H234" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I234" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B236" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>108</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G236">
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="7:8">
       <c r="G237">
         <v>2</v>
       </c>
       <c r="H237" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="238" spans="7:8">
       <c r="G238">
         <v>3</v>
       </c>
       <c r="H238" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="239" spans="7:9">
       <c r="G239">
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I239" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B242" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>161</v>
+        <v>32</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>108</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="7:8">
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="244" spans="7:8">
       <c r="G244">
         <v>3</v>
       </c>
       <c r="H244" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="245" spans="7:9">
       <c r="G245">
         <v>4</v>
       </c>
       <c r="H245" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I245" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
+        <v>147</v>
+      </c>
+      <c r="B247" t="s">
+        <v>133</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>110</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B247" t="s">
-        <v>131</v>
-      </c>
-      <c r="C247" t="s">
-        <v>35</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E247" t="s">
-        <v>108</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G247">
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="7:8">
       <c r="G248">
         <v>2</v>
       </c>
       <c r="H248" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="249" spans="7:8">
       <c r="G249">
         <v>3</v>
       </c>
       <c r="H249" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" spans="7:9">
       <c r="G250">
         <v>4</v>
       </c>
       <c r="H250" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I250" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B254" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C254" t="s">
-        <v>39</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>161</v>
+        <v>40</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E254" t="s">
-        <v>148</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G254">
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="7:8">
       <c r="G255">
         <v>2</v>
       </c>
       <c r="H255" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="256" spans="7:8">
       <c r="G256">
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="257" spans="7:9">
       <c r="G257">
         <v>4</v>
       </c>
       <c r="H257" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I257" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B259" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C259" t="s">
-        <v>43</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E259" t="s">
-        <v>148</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="7:8">
       <c r="G260">
         <v>2</v>
       </c>
       <c r="H260" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="261" spans="7:8">
       <c r="G261">
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="262" spans="7:9">
       <c r="G262">
         <v>4</v>
       </c>
       <c r="H262" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I262" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B264" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C264" t="s">
-        <v>43</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E264" t="s">
-        <v>148</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="G264">
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="7:8">
       <c r="G265">
         <v>2</v>
       </c>
       <c r="H265" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="266" spans="7:8">
       <c r="G266">
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="267" spans="7:9">
       <c r="G267">
         <v>4</v>
       </c>
       <c r="H267" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I267" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>